--- a/data/processed/state_overviews/nebraska_overview.xlsx
+++ b/data/processed/state_overviews/nebraska_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>769</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adams County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>18</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Antelope County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Arthur County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Boone County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Box Butte County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Boyd County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Brown County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Buffalo County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>23</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Burt County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>7</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Butler County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>2</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Cass County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Cedar County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Chase County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Cherry County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Cheyenne County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>4</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Clay County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>3</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Colfax County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>3</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Cuming County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>5</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Custer County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>6</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Dakota County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>3</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Dawes County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>3</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Dawson County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>9</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Dixon County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Dodge County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>12</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Douglas County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>273</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Fillmore County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Furnas County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>4</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Gage County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>11</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Garfield County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Greeley County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Hall County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>28</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Hamilton County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>7</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Harlan County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Hitchcock County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Holt County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>6</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>3</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Johnson County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>2</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Keith County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>5</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Knox County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>1</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Lancaster County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>135</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>16</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>21</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Merrick County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>4</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Nance County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Nemaha County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>3</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Nuckolls County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>3</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Otoe County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>7</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Pawnee County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>2</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Perkins County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>3</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Phelps County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>8</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Pierce County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>1</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Platte County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>5</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Polk County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>1</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Red Willow County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>4</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Richardson County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>4</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Saline County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>4</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Sarpy County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>19</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Saunders County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>3</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Scotts Bluff County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>25</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Seward County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>5</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Sheridan County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>1</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Sherman County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>4</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Thayer County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>2</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Thurston County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>4</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>5</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>4</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,8 +2610,10 @@
           <t>Webster County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>1</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,8 +2642,10 @@
           <t>York County</t>
         </is>
       </c>
-      <c r="B70">
-        <v>11</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,27 +2674,29 @@
           <t>Keya Paha County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>0</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2564,27 +2706,29 @@
           <t>Banner County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>0</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2594,27 +2738,29 @@
           <t>Dundy County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>0</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2624,27 +2770,29 @@
           <t>Kearney County</t>
         </is>
       </c>
-      <c r="B74">
-        <v>0</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2654,27 +2802,29 @@
           <t>Kimball County</t>
         </is>
       </c>
-      <c r="B75">
-        <v>0</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2684,27 +2834,29 @@
           <t>Gosper County</t>
         </is>
       </c>
-      <c r="B76">
-        <v>0</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2714,27 +2866,29 @@
           <t>Hayes County</t>
         </is>
       </c>
-      <c r="B77">
-        <v>0</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2744,27 +2898,29 @@
           <t>Stanton County</t>
         </is>
       </c>
-      <c r="B78">
-        <v>0</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2774,27 +2930,29 @@
           <t>Garden County</t>
         </is>
       </c>
-      <c r="B79">
-        <v>0</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2962,29 @@
           <t>Hooker County</t>
         </is>
       </c>
-      <c r="B80">
-        <v>0</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2834,27 +2994,29 @@
           <t>Morrill County</t>
         </is>
       </c>
-      <c r="B81">
-        <v>0</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2864,27 +3026,29 @@
           <t>Loup County</t>
         </is>
       </c>
-      <c r="B82">
-        <v>0</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2894,27 +3058,61 @@
           <t>Frontier County</t>
         </is>
       </c>
-      <c r="B83">
-        <v>0</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$986,876,099</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.78%</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-11.28%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>65.28%</t>
         </is>
       </c>
     </row>
@@ -2969,8 +3167,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>206</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2999,8 +3199,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>280</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3029,8 +3231,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>283</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3059,8 +3263,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B5">
-        <v>769</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3134,8 +3340,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>244</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3164,8 +3372,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>184</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3194,8 +3404,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>133</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3224,8 +3436,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>48</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3254,8 +3468,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>115</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3284,8 +3500,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>45</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3314,8 +3532,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>769</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3389,8 +3609,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>71</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3419,8 +3641,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>53</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3449,8 +3673,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>28</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3479,8 +3705,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>83</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3509,8 +3737,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>25</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3539,8 +3769,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>233</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3569,8 +3801,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>4</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3599,8 +3833,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>70</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3629,8 +3865,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>12</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3659,8 +3897,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>177</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3689,8 +3929,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>13</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3719,8 +3961,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>769</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/nebraska_overview.xlsx
+++ b/data/processed/state_overviews/nebraska_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,155 +431,155 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$24,737,352</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-24.70%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>72.22%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Antelope County</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>769</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$725,194</t>
+          <t>$986,876,099</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.37%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.98%</t>
+          <t>-11.28%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>65.28%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Arthur County</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$18,387</t>
+          <t>$24,737,352</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>125.51%</t>
+          <t>2.50%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>186.25%</t>
+          <t>-24.70%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>72.22%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Boone County</t>
+          <t>Antelope County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$24,200</t>
+          <t>$725,194</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.55%</t>
+          <t>9.37%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40.68%</t>
+          <t>5.98%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -591,59 +591,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Box Butte County</t>
+          <t>Arthur County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,022,740</t>
+          <t>$18,387</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.40%</t>
+          <t>125.51%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-77.70%</t>
+          <t>186.25%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boyd County</t>
+          <t>Boone County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$341,801</t>
+          <t>$24,200</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.83%</t>
+          <t>45.55%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>40.68%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -655,219 +655,219 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brown County</t>
+          <t>Box Butte County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$73,000</t>
+          <t>$1,022,740</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56.63%</t>
+          <t>3.40%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15.62%</t>
+          <t>-77.70%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Buffalo County</t>
+          <t>Boyd County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$29,292,915</t>
+          <t>$341,801</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.87%</t>
+          <t>10.83%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-24.07%</t>
+          <t>1.17%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>69.57%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Burt County</t>
+          <t>Brown County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$5,633,310</t>
+          <t>$73,000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13.48%</t>
+          <t>56.63%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-21.27%</t>
+          <t>15.62%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Butler County</t>
+          <t>Buffalo County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$114,903</t>
+          <t>$29,292,915</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16.05%</t>
+          <t>10.87%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14.38%</t>
+          <t>-24.07%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>69.57%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cass County</t>
+          <t>Burt County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,474,596</t>
+          <t>$5,633,310</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.86%</t>
+          <t>13.48%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-22.75%</t>
+          <t>-21.27%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cedar County</t>
+          <t>Butler County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$25,000</t>
+          <t>$114,903</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.77%</t>
+          <t>16.05%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-3.21%</t>
+          <t>14.38%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chase County</t>
+          <t>Cass County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$15,118</t>
+          <t>$1,474,596</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>11.86%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-10.74%</t>
+          <t>-22.75%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cherry County</t>
+          <t>Cedar County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$150,000</t>
+          <t>$25,000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-7.20%</t>
+          <t>4.77%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-106.87%</t>
+          <t>-3.21%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -911,219 +911,219 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cheyenne County</t>
+          <t>Chase County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$7,114,041</t>
+          <t>$15,118</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16.19%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.00%</t>
+          <t>-10.74%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Clay County</t>
+          <t>Cherry County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$153,920</t>
+          <t>$150,000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11.43%</t>
+          <t>-7.20%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-4.77%</t>
+          <t>-106.87%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colfax County</t>
+          <t>Cheyenne County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$1,594,517</t>
+          <t>$7,114,041</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>16.19%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.36%</t>
+          <t>3.00%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cuming County</t>
+          <t>Clay County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$2,551,607</t>
+          <t>$153,920</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.62%</t>
+          <t>11.43%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-24.31%</t>
+          <t>-4.77%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Custer County</t>
+          <t>Colfax County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$1,578,487</t>
+          <t>$1,594,517</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-10.73%</t>
+          <t>7.36%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dakota County</t>
+          <t>Cuming County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$1,846,761</t>
+          <t>$2,551,607</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.35%</t>
+          <t>1.62%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-28.58%</t>
+          <t>-24.31%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dawes County</t>
+          <t>Custer County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$4,788,926</t>
+          <t>$1,578,487</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>34.48%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-26.96%</t>
+          <t>-10.73%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1135,507 +1135,507 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dawson County</t>
+          <t>Dakota County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$4,946,385</t>
+          <t>$1,846,761</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-7.70%</t>
+          <t>5.35%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-39.38%</t>
+          <t>-28.58%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dixon County</t>
+          <t>Dawes County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$8,485</t>
+          <t>$4,788,926</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-171.93%</t>
+          <t>34.48%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-175.68%</t>
+          <t>-26.96%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dodge County</t>
+          <t>Dawson County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$9,392,120</t>
+          <t>$4,946,385</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8.98%</t>
+          <t>-7.70%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-38.30%</t>
+          <t>-39.38%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Douglas County</t>
+          <t>Dixon County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$439,596,286</t>
+          <t>$8,485</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.60%</t>
+          <t>-171.93%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-6.82%</t>
+          <t>-175.68%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>60.81%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fillmore County</t>
+          <t>Dodge County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$117,340</t>
+          <t>$9,392,120</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-6.38%</t>
+          <t>8.98%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-42.65%</t>
+          <t>-38.30%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Douglas County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$23,050</t>
+          <t>$439,596,286</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18.46%</t>
+          <t>5.60%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.88%</t>
+          <t>-6.82%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>60.81%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Furnas County</t>
+          <t>Fillmore County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$801,545</t>
+          <t>$117,340</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5.08%</t>
+          <t>-6.38%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-7.56%</t>
+          <t>-42.65%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gage County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$4,755,582</t>
+          <t>$23,050</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>18.46%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-7.76%</t>
+          <t>3.88%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Garfield County</t>
+          <t>Furnas County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$348,257</t>
+          <t>$801,545</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-18.12%</t>
+          <t>5.08%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-66.54%</t>
+          <t>-7.56%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Greeley County</t>
+          <t>Gage County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$27,486</t>
+          <t>$4,755,582</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-11.55%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-46.56%</t>
+          <t>-7.76%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hall County</t>
+          <t>Garfield County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$14,862,298</t>
+          <t>$348,257</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11.04%</t>
+          <t>-18.12%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-16.18%</t>
+          <t>-66.54%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>78.57%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hamilton County</t>
+          <t>Greeley County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$1,497,512</t>
+          <t>$27,486</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.83%</t>
+          <t>-11.55%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-0.36%</t>
+          <t>-46.56%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Harlan County</t>
+          <t>Hall County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$170,823</t>
+          <t>$14,862,298</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.82%</t>
+          <t>11.04%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-68.75%</t>
+          <t>-16.18%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>78.57%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hitchcock County</t>
+          <t>Hamilton County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$219,043</t>
+          <t>$1,497,512</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-0.90%</t>
+          <t>8.83%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-55.25%</t>
+          <t>-0.36%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Holt County</t>
+          <t>Harlan County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$5,433,477</t>
+          <t>$170,823</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5.21%</t>
+          <t>2.82%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-23.96%</t>
+          <t>-68.75%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Hitchcock County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$11,248,464</t>
+          <t>$219,043</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>-0.90%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-78.11%</t>
+          <t>-55.25%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1647,91 +1647,91 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Johnson County</t>
+          <t>Holt County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$1,006,282</t>
+          <t>$5,433,477</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>5.21%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-50.86%</t>
+          <t>-23.96%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Keith County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$934,889</t>
+          <t>$11,248,464</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.75%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-6.24%</t>
+          <t>-78.11%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Knox County</t>
+          <t>Johnson County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$4,250</t>
+          <t>$1,006,282</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-10.66%</t>
+          <t>-0.08%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-15.50%</t>
+          <t>-50.86%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1743,423 +1743,423 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lancaster County</t>
+          <t>Keith County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$195,925,171</t>
+          <t>$934,889</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9.31%</t>
+          <t>2.75%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-10.87%</t>
+          <t>-6.24%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>70.37%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Knox County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$10,698,277</t>
+          <t>$4,250</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14.18%</t>
+          <t>-10.66%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-61.93%</t>
+          <t>-15.50%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Lancaster County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$24,454,225</t>
+          <t>$195,925,171</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>9.31%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-22.91%</t>
+          <t>-10.87%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>70.37%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Merrick County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$635,723</t>
+          <t>$10,698,277</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>26.19%</t>
+          <t>14.18%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>20.86%</t>
+          <t>-61.93%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nance County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$198,520</t>
+          <t>$24,454,225</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>28.00%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-62.84%</t>
+          <t>-22.91%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nemaha County</t>
+          <t>Merrick County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$536,226</t>
+          <t>$635,723</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17.37%</t>
+          <t>26.19%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.74%</t>
+          <t>20.86%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nuckolls County</t>
+          <t>Nance County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$4,328,385</t>
+          <t>$198,520</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>18.77%</t>
+          <t>28.00%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8.78%</t>
+          <t>-62.84%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Otoe County</t>
+          <t>Nemaha County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$1,200,075</t>
+          <t>$536,226</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16.51%</t>
+          <t>17.37%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>2.74%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pawnee County</t>
+          <t>Nuckolls County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$42,090</t>
+          <t>$4,328,385</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-28.83%</t>
+          <t>18.77%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-41.89%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Perkins County</t>
+          <t>Otoe County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$213,259</t>
+          <t>$1,200,075</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>16.51%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>-2.58%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Phelps County</t>
+          <t>Pawnee County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$6,034,792</t>
+          <t>$42,090</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-6.11%</t>
+          <t>-28.83%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-23.32%</t>
+          <t>-41.89%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pierce County</t>
+          <t>Perkins County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$178,310</t>
+          <t>$213,259</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.89%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Platte County</t>
+          <t>Phelps County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$6,573,401</t>
+          <t>$6,034,792</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14.61%</t>
+          <t>-6.11%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-16.69%</t>
+          <t>-23.32%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Polk County</t>
+          <t>Pierce County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2169,93 +2169,93 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$116,916</t>
+          <t>$178,310</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-3.87%</t>
+          <t>3.89%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-5.89%</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Red Willow County</t>
+          <t>Platte County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$2,569,391</t>
+          <t>$6,573,401</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.13%</t>
+          <t>14.61%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-41.75%</t>
+          <t>-16.69%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Richardson County</t>
+          <t>Polk County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$4,103,972</t>
+          <t>$116,916</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11.78%</t>
+          <t>-3.87%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-51.14%</t>
+          <t>-5.89%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Saline County</t>
+          <t>Red Willow County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2265,241 +2265,241 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$7,514,509</t>
+          <t>$2,569,391</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>59.13%</t>
+          <t>4.13%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>57.00%</t>
+          <t>-41.75%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sarpy County</t>
+          <t>Richardson County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$72,335,239</t>
+          <t>$4,103,972</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>11.78%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-18.35%</t>
+          <t>-51.14%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>57.89%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Saunders County</t>
+          <t>Saline County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$94,764</t>
+          <t>$7,514,509</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13.71%</t>
+          <t>59.13%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>57.00%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Scotts Bluff County</t>
+          <t>Sarpy County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$23,225,502</t>
+          <t>$72,335,239</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3.57%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-8.71%</t>
+          <t>-18.35%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>68.00%</t>
+          <t>57.89%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Seward County</t>
+          <t>Saunders County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$4,668,943</t>
+          <t>$94,764</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13.12%</t>
+          <t>13.71%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4.92%</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sheridan County</t>
+          <t>Scotts Bluff County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$284,630</t>
+          <t>$23,225,502</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-55.99%</t>
+          <t>3.57%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-155.97%</t>
+          <t>-8.71%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>68.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sherman County</t>
+          <t>Seward County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$13,568,154</t>
+          <t>$4,668,943</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7.37%</t>
+          <t>13.12%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-69.94%</t>
+          <t>4.92%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Thayer County</t>
+          <t>Sheridan County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$1,891,172</t>
+          <t>$284,630</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9.84%</t>
+          <t>-55.99%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-10.91%</t>
+          <t>-155.97%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2511,7 +2511,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Thurston County</t>
+          <t>Sherman County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2521,61 +2521,61 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$13,636,986</t>
+          <t>$13,568,154</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>7.37%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-51.00%</t>
+          <t>-69.94%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Thayer County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$3,436,247</t>
+          <t>$1,891,172</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2.70%</t>
+          <t>9.84%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-15.72%</t>
+          <t>-10.91%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Thurston County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2585,113 +2585,113 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$7,011,645</t>
+          <t>$13,636,986</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>16.60%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.75%</t>
+          <t>-51.00%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Webster County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$103,000</t>
+          <t>$3,436,247</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>78.63%</t>
+          <t>2.70%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>76.46%</t>
+          <t>-15.72%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>York County</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$2,626,226</t>
+          <t>$7,011,645</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.32%</t>
+          <t>16.60%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-20.11%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Keya Paha County</t>
+          <t>Webster County</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$103,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>78.63%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>76.46%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2703,416 +2703,32 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Banner County</t>
+          <t>York County</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,626,226</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>6.32%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-20.11%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Dundy County</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Kearney County</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Kimball County</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Gosper County</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Hayes County</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Stanton County</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Garden County</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Hooker County</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Morrill County</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Loup County</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Frontier County</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>769</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>$986,876,099</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>7.78%</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-11.28%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>65.28%</t>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -3123,7 +2739,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3132,160 +2748,192 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$318,516,414</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-11.24%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68.93%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>769</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$440,259,358</t>
+          <t>$986,876,099</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.55%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.88%</t>
+          <t>-11.28%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>60.71%</t>
+          <t>65.28%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$228,100,327</t>
+          <t>$318,516,414</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.33%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.42%</t>
+          <t>-11.24%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.14%</t>
+          <t>68.93%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>280</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$986,876,099</t>
+          <t>$440,259,358</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>5.55%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-11.28%</t>
+          <t>-6.88%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>65.28%</t>
+          <t>60.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3rd Congressional district</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$228,100,327</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.33%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-16.42%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>67.14%</t>
         </is>
       </c>
     </row>
@@ -3310,34 +2958,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3369,128 +3017,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$158,123,671</t>
+          <t>$681,013,508</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>6.28%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-8.35%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65.22%</t>
+          <t>48.70%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$34,134,617</t>
+          <t>$158,123,671</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.31%</t>
+          <t>9.07%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.65%</t>
+          <t>-8.35%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.92%</t>
+          <t>65.22%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$79,431,962</t>
+          <t>$34,134,617</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>9.31%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-14.54%</t>
+          <t>-11.65%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>72.92%</t>
+          <t>66.92%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$681,013,508</t>
+          <t>$79,431,962</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.28%</t>
+          <t>3.77%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>-14.54%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>48.70%</t>
+          <t>72.92%</t>
         </is>
       </c>
     </row>
@@ -3579,34 +3227,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3638,7 +3286,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3670,7 +3318,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3702,7 +3350,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3766,7 +3414,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3798,7 +3446,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3830,7 +3478,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3862,7 +3510,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3894,64 +3542,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$228,425,122</t>
+          <t>$78,583,016</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.98%</t>
+          <t>8.21%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-7.76%</t>
+          <t>-1.35%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>68.93%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$78,583,016</t>
+          <t>$228,425,122</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.21%</t>
+          <t>5.98%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-1.35%</t>
+          <t>-7.76%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>68.93%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/nebraska_overview.xlsx
+++ b/data/processed/state_overviews/nebraska_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>65.28%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$986,876,099</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-11.28%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.28%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.28%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$986,876,099</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-11.28%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.28%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>72.22%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$24,737,352</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2.50%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-24.70%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>72.22%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$725,194</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.37%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.98%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$18,387</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>125.51%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>186.25%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$24,200</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>45.55%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>40.68%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,022,740</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>3.40%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-77.70%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$341,801</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10.83%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.17%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$73,000</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>56.63%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>15.62%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>69.57%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$29,292,915</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>10.87%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-24.07%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>69.57%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$5,633,310</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>13.48%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-21.27%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$114,903</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>16.05%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>14.38%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$1,474,596</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>11.86%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-22.75%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$25,000</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>4.77%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-3.21%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$15,118</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.13%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-10.74%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$150,000</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>-7.20%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-106.87%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$7,114,041</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>16.19%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>3.00%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$153,920</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>11.43%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-4.77%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$1,594,517</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>11.45%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>7.36%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$2,551,607</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1.62%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-24.31%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$1,578,487</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2.58%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-10.73%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$1,846,761</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>5.35%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-28.58%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$4,788,926</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>34.48%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-26.96%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$4,946,385</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>-7.70%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-39.38%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$8,485</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>-171.93%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-175.68%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$9,392,120</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>8.98%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-38.30%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>60.81%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>273</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$439,596,286</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>5.60%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-6.82%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>60.81%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$117,340</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>-6.38%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-42.65%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$23,050</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>18.46%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>3.88%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$801,545</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>5.08%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-7.56%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$4,755,582</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>9.32%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-7.76%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$348,257</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>-18.12%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-66.54%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$27,486</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>-11.55%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-46.56%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>78.57%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$14,862,298</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>11.04%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-16.18%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>78.57%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$1,497,512</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>8.83%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-0.36%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$170,823</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2.82%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-68.75%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$219,043</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>-0.90%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-55.25%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$5,433,477</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>5.21%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-23.96%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$11,248,464</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0.44%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-78.11%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$1,006,282</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>-0.08%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-50.86%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$934,889</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2.75%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-6.24%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$4,250</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>-10.66%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-15.50%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>70.37%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$195,925,171</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>9.31%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-10.87%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>70.37%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$10,698,277</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>14.18%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-61.93%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$24,454,225</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>7.68%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-22.91%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$635,723</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>26.19%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>20.86%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$198,520</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>28.00%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-62.84%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$536,226</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>17.37%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2.74%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$4,328,385</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>18.77%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>8.78%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$1,200,075</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>16.51%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-2.58%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$42,090</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>-28.83%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-41.89%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$213,259</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>7.14%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>0.54%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$6,034,792</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>-6.11%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-23.32%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$178,310</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>3.89%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1.84%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$6,573,401</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>14.61%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-16.69%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$116,916</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>-3.87%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-5.89%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$2,569,391</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>4.13%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-41.75%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$4,103,972</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>11.78%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-51.14%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$7,514,509</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>59.13%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>57.00%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>57.89%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$72,335,239</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>9.41%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-18.35%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>57.89%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$94,764</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>13.71%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>4.71%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>68.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$23,225,502</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>3.57%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-8.71%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>68.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$4,668,943</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>13.12%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>4.92%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$284,630</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>-55.99%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-155.97%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$13,568,154</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>7.37%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-69.94%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$1,891,172</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>9.84%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-10.91%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$13,636,986</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>6.14%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-51.00%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$3,436,247</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2.70%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-15.72%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$7,011,645</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>16.60%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1.75%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>$103,000</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>78.63%</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>76.46%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2708,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>$2,626,226</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>6.32%</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>-20.11%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -2753,27 +2753,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2785,27 +2785,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2817,123 +2817,123 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>65.28%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$986,876,099</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-11.28%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65.28%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>68.93%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>206</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$318,516,414</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.32%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-11.24%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>68.93%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>60.71%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>280</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$440,259,358</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>5.55%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-6.88%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>60.71%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>67.14%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>283</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$228,100,327</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>7.33%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-16.42%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>67.14%</t>
         </is>
       </c>
     </row>
@@ -2958,187 +2958,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>72.13%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>244</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$30,681,851</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>6.19%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-24.73%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>72.13%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>65.22%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$681,013,508</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.28%</t>
+          <t>$158,123,671</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>9.07%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>48.70%</t>
+          <t>-8.35%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>66.92%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$158,123,671</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>$34,134,617</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.35%</t>
+          <t>9.31%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65.22%</t>
+          <t>-11.65%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>72.92%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$34,134,617</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.31%</t>
+          <t>$79,431,962</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-11.65%</t>
+          <t>3.77%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.92%</t>
+          <t>-14.54%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48.70%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$79,431,962</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>$681,013,508</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-14.54%</t>
+          <t>6.28%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.92%</t>
+          <t>0.72%</t>
         </is>
       </c>
     </row>
@@ -3150,27 +3150,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>57.78%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$3,490,490</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>18.25%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-8.17%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>57.78%</t>
         </is>
       </c>
     </row>
@@ -3182,27 +3182,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>65.28%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$986,876,099</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-11.28%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>65.28%</t>
         </is>
       </c>
     </row>
@@ -3227,155 +3227,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>70.42%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$27,197,229</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.79%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-16.79%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>70.42%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>64.15%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$45,560,582</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.74%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-14.48%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>64.15%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$33,145,725</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>17.47%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.38%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>74.70%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$194,901,280</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>5.35%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-15.48%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>74.70%</t>
         </is>
       </c>
     </row>
@@ -3387,219 +3387,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>28.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$69,058,366</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>10.83%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.89%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>28.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>67.38%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>233</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$170,888,996</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6.28%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-16.72%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>67.38%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$702,182</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>19.64%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-0.26%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$136,289,238</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>17.77%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-7.95%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$2,124,363</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>4.92%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-12.39%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>68.93%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$78,583,016</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.21%</t>
+          <t>$228,425,122</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-1.35%</t>
+          <t>5.98%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>-7.76%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>61.54%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$228,425,122</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.98%</t>
+          <t>$78,583,016</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-7.76%</t>
+          <t>8.21%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68.93%</t>
+          <t>-1.35%</t>
         </is>
       </c>
     </row>
@@ -3611,27 +3611,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>65.28%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>769</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$986,876,099</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-11.28%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>65.28%</t>
         </is>
       </c>
     </row>
